--- a/PYTHON AUTOMATION/excel.xlsx
+++ b/PYTHON AUTOMATION/excel.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="firstsheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Secondsheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,6 +414,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Total_sales</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/PYTHON AUTOMATION/excel.xlsx
+++ b/PYTHON AUTOMATION/excel.xlsx
@@ -1,41 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analytics-porfolio\data-analytics-portfolio\PYTHON AUTOMATION\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3CF3E17-05F4-426D-8A63-731E84169128}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17953" windowHeight="5554" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="firstsheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Secondsheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="details" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>saagr</t>
+  </si>
+  <si>
+    <t>Rakesh</t>
+  </si>
+  <si>
+    <t>rahul</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>malika</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,85 +78,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -409,65 +403,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Total_sales</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>40000</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/PYTHON AUTOMATION/excel.xlsx
+++ b/PYTHON AUTOMATION/excel.xlsx
@@ -1,73 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analytics-porfolio\data-analytics-portfolio\PYTHON AUTOMATION\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3CF3E17-05F4-426D-8A63-731E84169128}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17953" windowHeight="5554" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="17953" windowHeight="5554" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="details" sheetId="1" r:id="rId1"/>
+    <sheet name="details" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Names</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>saagr</t>
-  </si>
-  <si>
-    <t>Rakesh</t>
-  </si>
-  <si>
-    <t>rahul</t>
-  </si>
-  <si>
-    <t>Arjun</t>
-  </si>
-  <si>
-    <t>malika</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="28"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -97,25 +75,96 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -403,58 +452,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="16.08203125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="9.4140625" bestFit="1" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1" ht="36" customHeight="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Names</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>saagr</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Rakesh</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>rahul</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Arjun</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>malika</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
         <v>26</v>
       </c>
     </row>

--- a/PYTHON AUTOMATION/excel.xlsx
+++ b/PYTHON AUTOMATION/excel.xlsx
@@ -48,7 +48,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -71,11 +71,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -92,6 +98,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -470,66 +486,82 @@
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Names</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Age</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>saagr</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="8" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>Rakesh</t>
         </is>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="8" t="n">
         <v>56</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>rahul</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="8" t="n">
         <v>53</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="8" t="inlineStr">
         <is>
           <t>Arjun</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="8" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>malika</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="8" t="n">
         <v>26</v>
       </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="n"/>
+      <c r="B7" s="9" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="n"/>
+      <c r="B8" s="9" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="9" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
